--- a/mySystem/mySystem/xls/Extrusion/C/SOP-MFG-301-R08 吹膜机组运行记录.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/C/SOP-MFG-301-R08 吹膜机组运行记录.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="15480" windowHeight="10860" activeTab="1"/>
@@ -1220,8 +1220,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1684,7 +1684,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1781,9 +1781,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1874,6 +1871,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1930,9 +1930,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1995,7 +1992,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2027,10 +2024,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2062,7 +2058,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2238,14 +2233,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N3" sqref="N3:O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="11.125" style="3" customWidth="1"/>
     <col min="2" max="7" width="9" style="3"/>
@@ -2254,7 +2249,7 @@
     <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" ht="21" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>6</v>
       </c>
@@ -2269,62 +2264,62 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
-      <c r="M1" s="46" t="s">
+      <c r="M1" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-    </row>
-    <row r="2" spans="1:15" ht="48.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="49" t="s">
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+    </row>
+    <row r="2" spans="1:15" ht="48.95" customHeight="1">
+      <c r="A2" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="53" t="s">
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53" t="s">
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53" t="s">
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="56" t="s">
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="57"/>
-      <c r="L3" s="54" t="s">
+      <c r="K3" s="56"/>
+      <c r="L3" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="55"/>
-      <c r="N3" s="54" t="s">
+      <c r="M3" s="54"/>
+      <c r="N3" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="55"/>
-    </row>
-    <row r="4" spans="1:15" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:15" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O3" s="54"/>
+    </row>
+    <row r="4" spans="1:15" ht="8.4499999999999993" customHeight="1"/>
+    <row r="5" spans="1:15" ht="26.45" customHeight="1">
       <c r="A5" s="15" t="s">
         <v>27</v>
       </c>
@@ -2346,7 +2341,7 @@
       <c r="G5" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="51" t="s">
+      <c r="I5" s="50" t="s">
         <v>47</v>
       </c>
       <c r="J5" s="15" t="s">
@@ -2368,7 +2363,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15" ht="26.45" customHeight="1">
       <c r="A6" s="15" t="s">
         <v>53</v>
       </c>
@@ -2378,7 +2373,7 @@
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
-      <c r="I6" s="51"/>
+      <c r="I6" s="50"/>
       <c r="J6" s="15" t="s">
         <v>0</v>
       </c>
@@ -2398,7 +2393,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15" ht="26.45" customHeight="1">
       <c r="A7" s="15" t="s">
         <v>54</v>
       </c>
@@ -2424,7 +2419,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15" ht="26.45" customHeight="1">
       <c r="A8" s="15" t="s">
         <v>55</v>
       </c>
@@ -2450,8 +2445,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="51" t="s">
+    <row r="9" spans="1:15" ht="26.45" customHeight="1">
+      <c r="A9" s="50" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="15" t="s">
@@ -2466,10 +2461,10 @@
       <c r="E9" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="60" t="s">
+      <c r="F9" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="52"/>
+      <c r="G9" s="51"/>
       <c r="I9" s="14" t="s">
         <v>15</v>
       </c>
@@ -2482,14 +2477,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="51"/>
+    <row r="10" spans="1:15" ht="26.45" customHeight="1">
+      <c r="A10" s="50"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="52"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="51"/>
       <c r="I10" s="14" t="s">
         <v>16</v>
       </c>
@@ -2502,7 +2497,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15" ht="26.45" customHeight="1">
       <c r="I11" s="14" t="s">
         <v>48</v>
       </c>
@@ -2519,8 +2514,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="51" t="s">
+    <row r="12" spans="1:15" ht="26.45" customHeight="1">
+      <c r="A12" s="50" t="s">
         <v>42</v>
       </c>
       <c r="B12" s="15" t="s">
@@ -2563,8 +2558,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="51"/>
+    <row r="13" spans="1:15" ht="26.45" customHeight="1">
+      <c r="A13" s="50"/>
       <c r="B13" s="13" t="s">
         <v>0</v>
       </c>
@@ -2605,7 +2600,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15" ht="26.45" customHeight="1">
       <c r="A14" s="17" t="s">
         <v>58</v>
       </c>
@@ -2637,7 +2632,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15" ht="26.45" customHeight="1">
       <c r="A15" s="15" t="s">
         <v>59</v>
       </c>
@@ -2650,20 +2645,20 @@
       <c r="I15" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="J15" s="51" t="s">
+      <c r="J15" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51" t="s">
+      <c r="K15" s="50"/>
+      <c r="L15" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51" t="s">
+      <c r="M15" s="50"/>
+      <c r="N15" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="O15" s="51"/>
-    </row>
-    <row r="16" spans="1:15" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O15" s="50"/>
+    </row>
+    <row r="16" spans="1:15" ht="26.45" customHeight="1">
       <c r="A16" s="15" t="s">
         <v>60</v>
       </c>
@@ -2676,20 +2671,20 @@
       <c r="I16" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="J16" s="51" t="s">
+      <c r="J16" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51" t="s">
+      <c r="K16" s="50"/>
+      <c r="L16" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51" t="s">
+      <c r="M16" s="50"/>
+      <c r="N16" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="O16" s="51"/>
-    </row>
-    <row r="17" spans="1:15" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O16" s="50"/>
+    </row>
+    <row r="17" spans="1:15" ht="8.4499999999999993" customHeight="1">
       <c r="A17" s="16"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -2698,16 +2693,16 @@
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
     </row>
-    <row r="18" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="58" t="s">
+    <row r="18" spans="1:15" ht="20.25" customHeight="1">
+      <c r="A18" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="B18" s="59"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
@@ -2717,7 +2712,7 @@
       <c r="N18" s="5"/>
       <c r="O18" s="6"/>
     </row>
-    <row r="19" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:15" ht="12" customHeight="1">
       <c r="A19" s="7"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2734,8 +2729,8 @@
       <c r="N19" s="2"/>
       <c r="O19" s="8"/>
     </row>
-    <row r="20" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" spans="1:15" ht="19.7" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:15" ht="20.25" customHeight="1"/>
+    <row r="21" spans="1:15" ht="19.7" customHeight="1">
       <c r="O21" s="9"/>
     </row>
   </sheetData>
@@ -2767,14 +2762,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="J7" sqref="J7:O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="12.375" style="20" customWidth="1"/>
     <col min="2" max="7" width="9" style="20"/>
@@ -2783,13 +2778,13 @@
     <col min="10" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="62" t="s">
+    <row r="1" spans="1:15" ht="21" customHeight="1">
+      <c r="A1" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
       <c r="E1" s="18"/>
       <c r="F1" s="18"/>
       <c r="G1" s="18"/>
@@ -2804,26 +2799,26 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="48.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="82" t="s">
+    <row r="2" spans="1:15" ht="48.95" customHeight="1">
+      <c r="A2" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
-      <c r="O2" s="82"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="69" t="s">
         <v>116</v>
       </c>
@@ -2852,8 +2847,8 @@
       </c>
       <c r="O3" s="68"/>
     </row>
-    <row r="4" spans="1:15" ht="8.4499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:15" s="47" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" ht="8.4499999999999993" customHeight="1" thickBot="1"/>
+    <row r="5" spans="1:15" s="46" customFormat="1" ht="26.45" customHeight="1">
       <c r="A5" s="21" t="s">
         <v>67</v>
       </c>
@@ -2881,7 +2876,7 @@
       <c r="J5" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="K5" s="48" t="s">
+      <c r="K5" s="47" t="s">
         <v>118</v>
       </c>
       <c r="L5" s="22" t="s">
@@ -2897,7 +2892,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15" ht="26.45" customHeight="1">
       <c r="A6" s="24" t="s">
         <v>81</v>
       </c>
@@ -2927,7 +2922,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15" ht="26.45" customHeight="1">
       <c r="A7" s="24" t="s">
         <v>82</v>
       </c>
@@ -2953,7 +2948,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15" ht="26.45" customHeight="1">
       <c r="A8" s="24" t="s">
         <v>85</v>
       </c>
@@ -2975,7 +2970,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15" ht="26.45" customHeight="1">
       <c r="A9" s="77" t="s">
         <v>88</v>
       </c>
@@ -2998,29 +2993,29 @@
       <c r="I9" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
       <c r="O9" s="30" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="26.45" customHeight="1" thickBot="1">
       <c r="A10" s="78"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="34" t="s">
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="33" t="s">
         <v>93</v>
       </c>
       <c r="G10" s="80"/>
       <c r="I10" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="J10" s="32"/>
+      <c r="J10" s="28"/>
       <c r="K10" s="28"/>
       <c r="L10" s="29" t="s">
         <v>87</v>
@@ -3033,7 +3028,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="26.45" customHeight="1" thickBot="1">
       <c r="I11" s="27" t="s">
         <v>95</v>
       </c>
@@ -3056,7 +3051,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15" ht="26.45" customHeight="1">
       <c r="A12" s="76" t="s">
         <v>96</v>
       </c>
@@ -3100,7 +3095,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15" ht="26.45" customHeight="1">
       <c r="A13" s="77"/>
       <c r="B13" s="25" t="s">
         <v>0</v>
@@ -3120,7 +3115,7 @@
       <c r="G13" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="I13" s="35" t="s">
+      <c r="I13" s="34" t="s">
         <v>104</v>
       </c>
       <c r="J13" s="29" t="s">
@@ -3138,12 +3133,12 @@
       <c r="N13" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="O13" s="36" t="s">
+      <c r="O13" s="35" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="37" t="s">
+    <row r="14" spans="1:15" ht="26.45" customHeight="1">
+      <c r="A14" s="36" t="s">
         <v>105</v>
       </c>
       <c r="B14" s="25"/>
@@ -3170,11 +3165,11 @@
       <c r="N14" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="O14" s="36" t="s">
+      <c r="O14" s="35" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="26.45" customHeight="1" thickBot="1">
       <c r="A15" s="24" t="s">
         <v>107</v>
       </c>
@@ -3206,17 +3201,17 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="38" t="s">
+    <row r="16" spans="1:15" ht="26.45" customHeight="1" thickBot="1">
+      <c r="A16" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="39"/>
-      <c r="I16" s="40" t="s">
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="38"/>
+      <c r="I16" s="39" t="s">
         <v>110</v>
       </c>
       <c r="J16" s="81" t="s">
@@ -3232,8 +3227,8 @@
       </c>
       <c r="O16" s="73"/>
     </row>
-    <row r="17" spans="1:15" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:15" ht="8.4499999999999993" customHeight="1"/>
+    <row r="18" spans="1:15" ht="20.25" customHeight="1">
       <c r="A18" s="74" t="s">
         <v>115</v>
       </c>
@@ -3243,17 +3238,17 @@
       <c r="E18" s="75"/>
       <c r="F18" s="75"/>
       <c r="G18" s="75"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="42"/>
-    </row>
-    <row r="19" spans="1:15" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="43"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="41"/>
+    </row>
+    <row r="19" spans="1:15" ht="26.45" customHeight="1">
+      <c r="A19" s="42"/>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
@@ -3267,11 +3262,11 @@
       <c r="L19" s="18"/>
       <c r="M19" s="18"/>
       <c r="N19" s="18"/>
-      <c r="O19" s="44"/>
-    </row>
-    <row r="20" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" spans="1:15" ht="19.7" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O21" s="45"/>
+      <c r="O19" s="43"/>
+    </row>
+    <row r="20" spans="1:15" ht="20.25" customHeight="1"/>
+    <row r="21" spans="1:15" ht="19.7" customHeight="1">
+      <c r="O21" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -3299,12 +3294,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3313,12 +3308,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/mySystem/mySystem/xls/Extrusion/C/SOP-MFG-301-R08 吹膜机组运行记录.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/C/SOP-MFG-301-R08 吹膜机组运行记录.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10613"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0256E944-7DFD-A740-8537-12081A6FC2AE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="15480" windowHeight="10860" activeTab="1"/>
+    <workbookView xWindow="860" yWindow="460" windowWidth="27940" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1220,12 +1221,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1300,14 +1301,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1829,15 +1830,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -1856,16 +1869,28 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
@@ -1901,40 +1926,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1950,7 +1951,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1992,7 +1993,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2024,9 +2025,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2058,6 +2077,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2233,16 +2270,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N3" sqref="N3:O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" style="3" customWidth="1"/>
     <col min="2" max="7" width="9" style="3"/>
     <col min="8" max="8" width="2" style="3" customWidth="1"/>
     <col min="9" max="9" width="12.5" style="3" customWidth="1"/>
@@ -2270,56 +2307,56 @@
       <c r="N1" s="45"/>
       <c r="O1" s="45"/>
     </row>
-    <row r="2" spans="1:15" ht="48.95" customHeight="1">
-      <c r="A2" s="48" t="s">
+    <row r="2" spans="1:15" ht="49" customHeight="1">
+      <c r="A2" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52" t="s">
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52" t="s">
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="55" t="s">
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="56"/>
-      <c r="L3" s="53" t="s">
+      <c r="K3" s="60"/>
+      <c r="L3" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="54"/>
-      <c r="N3" s="53" t="s">
+      <c r="M3" s="58"/>
+      <c r="N3" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="54"/>
-    </row>
-    <row r="4" spans="1:15" ht="8.4499999999999993" customHeight="1"/>
-    <row r="5" spans="1:15" ht="26.45" customHeight="1">
+      <c r="O3" s="58"/>
+    </row>
+    <row r="4" spans="1:15" ht="8.5" customHeight="1"/>
+    <row r="5" spans="1:15" ht="26.5" customHeight="1">
       <c r="A5" s="15" t="s">
         <v>27</v>
       </c>
@@ -2341,7 +2378,7 @@
       <c r="G5" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="50" t="s">
+      <c r="I5" s="48" t="s">
         <v>47</v>
       </c>
       <c r="J5" s="15" t="s">
@@ -2363,7 +2400,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="26.45" customHeight="1">
+    <row r="6" spans="1:15" ht="26.5" customHeight="1">
       <c r="A6" s="15" t="s">
         <v>53</v>
       </c>
@@ -2373,7 +2410,7 @@
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
-      <c r="I6" s="50"/>
+      <c r="I6" s="48"/>
       <c r="J6" s="15" t="s">
         <v>0</v>
       </c>
@@ -2393,7 +2430,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="26.45" customHeight="1">
+    <row r="7" spans="1:15" ht="26.5" customHeight="1">
       <c r="A7" s="15" t="s">
         <v>54</v>
       </c>
@@ -2419,7 +2456,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="26.45" customHeight="1">
+    <row r="8" spans="1:15" ht="26.5" customHeight="1">
       <c r="A8" s="15" t="s">
         <v>55</v>
       </c>
@@ -2445,8 +2482,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="26.45" customHeight="1">
-      <c r="A9" s="50" t="s">
+    <row r="9" spans="1:15" ht="26.5" customHeight="1">
+      <c r="A9" s="48" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="15" t="s">
@@ -2461,10 +2498,10 @@
       <c r="E9" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="59" t="s">
+      <c r="F9" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="51"/>
+      <c r="G9" s="55"/>
       <c r="I9" s="14" t="s">
         <v>15</v>
       </c>
@@ -2477,14 +2514,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="26.45" customHeight="1">
-      <c r="A10" s="50"/>
+    <row r="10" spans="1:15" ht="26.5" customHeight="1">
+      <c r="A10" s="48"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="51"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="55"/>
       <c r="I10" s="14" t="s">
         <v>16</v>
       </c>
@@ -2497,7 +2534,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="26.45" customHeight="1">
+    <row r="11" spans="1:15" ht="26.5" customHeight="1">
       <c r="I11" s="14" t="s">
         <v>48</v>
       </c>
@@ -2514,8 +2551,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="26.45" customHeight="1">
-      <c r="A12" s="50" t="s">
+    <row r="12" spans="1:15" ht="26.5" customHeight="1">
+      <c r="A12" s="48" t="s">
         <v>42</v>
       </c>
       <c r="B12" s="15" t="s">
@@ -2558,8 +2595,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="26.45" customHeight="1">
-      <c r="A13" s="50"/>
+    <row r="13" spans="1:15" ht="26.5" customHeight="1">
+      <c r="A13" s="48"/>
       <c r="B13" s="13" t="s">
         <v>0</v>
       </c>
@@ -2600,7 +2637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="26.45" customHeight="1">
+    <row r="14" spans="1:15" ht="26.5" customHeight="1">
       <c r="A14" s="17" t="s">
         <v>58</v>
       </c>
@@ -2632,7 +2669,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="26.45" customHeight="1">
+    <row r="15" spans="1:15" ht="26.5" customHeight="1">
       <c r="A15" s="15" t="s">
         <v>59</v>
       </c>
@@ -2645,20 +2682,20 @@
       <c r="I15" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="J15" s="50" t="s">
+      <c r="J15" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50" t="s">
+      <c r="K15" s="48"/>
+      <c r="L15" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="M15" s="50"/>
-      <c r="N15" s="50" t="s">
+      <c r="M15" s="48"/>
+      <c r="N15" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="O15" s="50"/>
-    </row>
-    <row r="16" spans="1:15" ht="26.45" customHeight="1">
+      <c r="O15" s="48"/>
+    </row>
+    <row r="16" spans="1:15" ht="26.5" customHeight="1">
       <c r="A16" s="15" t="s">
         <v>60</v>
       </c>
@@ -2671,20 +2708,20 @@
       <c r="I16" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="J16" s="50" t="s">
+      <c r="J16" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="K16" s="50"/>
-      <c r="L16" s="50" t="s">
+      <c r="K16" s="48"/>
+      <c r="L16" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="M16" s="50"/>
-      <c r="N16" s="50" t="s">
+      <c r="M16" s="48"/>
+      <c r="N16" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="O16" s="50"/>
-    </row>
-    <row r="17" spans="1:15" ht="8.4499999999999993" customHeight="1">
+      <c r="O16" s="48"/>
+    </row>
+    <row r="17" spans="1:15" ht="8.5" customHeight="1">
       <c r="A17" s="16"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -2694,15 +2731,15 @@
       <c r="G17" s="16"/>
     </row>
     <row r="18" spans="1:15" ht="20.25" customHeight="1">
-      <c r="A18" s="57" t="s">
+      <c r="A18" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="B18" s="58"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
@@ -2730,11 +2767,20 @@
       <c r="O19" s="8"/>
     </row>
     <row r="20" spans="1:15" ht="20.25" customHeight="1"/>
-    <row r="21" spans="1:15" ht="19.7" customHeight="1">
+    <row r="21" spans="1:15" ht="19.75" customHeight="1">
       <c r="O21" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="J3:K3"/>
     <mergeCell ref="N16:O16"/>
     <mergeCell ref="A18:G18"/>
     <mergeCell ref="A12:A13"/>
@@ -2745,15 +2791,6 @@
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="N15:O15"/>
     <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="J3:K3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.72" right="0.70866141732283472" top="0.5" bottom="0.37" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2762,29 +2799,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7:O15"/>
+      <selection activeCell="G9" sqref="G9:G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="12.375" style="20" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" style="20" customWidth="1"/>
     <col min="2" max="7" width="9" style="20"/>
     <col min="8" max="8" width="1" style="20" customWidth="1"/>
-    <col min="9" max="9" width="14.25" style="20" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" style="20" customWidth="1"/>
     <col min="10" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21" customHeight="1">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
       <c r="E1" s="18"/>
       <c r="F1" s="18"/>
       <c r="G1" s="18"/>
@@ -2799,56 +2836,56 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="48.95" customHeight="1">
-      <c r="A2" s="62" t="s">
+    <row r="2" spans="1:15" ht="49" customHeight="1">
+      <c r="A2" s="70" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="77" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="67" t="s">
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="F3" s="68"/>
-      <c r="G3" s="63" t="s">
+      <c r="F3" s="76"/>
+      <c r="G3" s="71" t="s">
         <v>117</v>
       </c>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="65" t="s">
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="K3" s="66"/>
-      <c r="L3" s="67" t="s">
+      <c r="K3" s="74"/>
+      <c r="L3" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="M3" s="68"/>
-      <c r="N3" s="67" t="s">
+      <c r="M3" s="76"/>
+      <c r="N3" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="O3" s="68"/>
-    </row>
-    <row r="4" spans="1:15" ht="8.4499999999999993" customHeight="1" thickBot="1"/>
-    <row r="5" spans="1:15" s="46" customFormat="1" ht="26.45" customHeight="1">
+      <c r="O3" s="76"/>
+    </row>
+    <row r="4" spans="1:15" ht="8.5" customHeight="1" thickBot="1"/>
+    <row r="5" spans="1:15" s="46" customFormat="1" ht="26.5" customHeight="1">
       <c r="A5" s="21" t="s">
         <v>67</v>
       </c>
@@ -2870,7 +2907,7 @@
       <c r="G5" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="I5" s="76" t="s">
+      <c r="I5" s="65" t="s">
         <v>74</v>
       </c>
       <c r="J5" s="22" t="s">
@@ -2892,7 +2929,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="26.45" customHeight="1">
+    <row r="6" spans="1:15" ht="26.5" customHeight="1">
       <c r="A6" s="24" t="s">
         <v>81</v>
       </c>
@@ -2902,7 +2939,7 @@
       <c r="E6" s="25"/>
       <c r="F6" s="25"/>
       <c r="G6" s="26"/>
-      <c r="I6" s="77"/>
+      <c r="I6" s="66"/>
       <c r="J6" s="25" t="s">
         <v>0</v>
       </c>
@@ -2922,7 +2959,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="26.45" customHeight="1">
+    <row r="7" spans="1:15" ht="26.5" customHeight="1">
       <c r="A7" s="24" t="s">
         <v>82</v>
       </c>
@@ -2948,7 +2985,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="26.45" customHeight="1">
+    <row r="8" spans="1:15" ht="26.5" customHeight="1">
       <c r="A8" s="24" t="s">
         <v>85</v>
       </c>
@@ -2970,8 +3007,8 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="26.45" customHeight="1">
-      <c r="A9" s="77" t="s">
+    <row r="9" spans="1:15" ht="26.5" customHeight="1">
+      <c r="A9" s="66" t="s">
         <v>88</v>
       </c>
       <c r="B9" s="25" t="s">
@@ -2989,7 +3026,7 @@
       <c r="F9" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="G9" s="79"/>
+      <c r="G9" s="80"/>
       <c r="I9" s="27" t="s">
         <v>92</v>
       </c>
@@ -3002,8 +3039,8 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="26.45" customHeight="1" thickBot="1">
-      <c r="A10" s="78"/>
+    <row r="10" spans="1:15" ht="26.5" customHeight="1" thickBot="1">
+      <c r="A10" s="67"/>
       <c r="B10" s="32"/>
       <c r="C10" s="32"/>
       <c r="D10" s="32"/>
@@ -3011,7 +3048,7 @@
       <c r="F10" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="G10" s="80"/>
+      <c r="G10" s="81"/>
       <c r="I10" s="27" t="s">
         <v>94</v>
       </c>
@@ -3028,7 +3065,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="26.45" customHeight="1" thickBot="1">
+    <row r="11" spans="1:15" ht="26.5" customHeight="1" thickBot="1">
       <c r="I11" s="27" t="s">
         <v>95</v>
       </c>
@@ -3051,8 +3088,8 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="26.45" customHeight="1">
-      <c r="A12" s="76" t="s">
+    <row r="12" spans="1:15" ht="26.5" customHeight="1">
+      <c r="A12" s="65" t="s">
         <v>96</v>
       </c>
       <c r="B12" s="22" t="s">
@@ -3095,8 +3132,8 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="26.45" customHeight="1">
-      <c r="A13" s="77"/>
+    <row r="13" spans="1:15" ht="26.5" customHeight="1">
+      <c r="A13" s="66"/>
       <c r="B13" s="25" t="s">
         <v>0</v>
       </c>
@@ -3137,7 +3174,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="26.45" customHeight="1">
+    <row r="14" spans="1:15" ht="26.5" customHeight="1">
       <c r="A14" s="36" t="s">
         <v>105</v>
       </c>
@@ -3169,7 +3206,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="26.45" customHeight="1" thickBot="1">
+    <row r="15" spans="1:15" ht="26.5" customHeight="1" thickBot="1">
       <c r="A15" s="24" t="s">
         <v>107</v>
       </c>
@@ -3201,7 +3238,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="26.45" customHeight="1" thickBot="1">
+    <row r="16" spans="1:15" ht="26.5" customHeight="1" thickBot="1">
       <c r="A16" s="37" t="s">
         <v>85</v>
       </c>
@@ -3214,30 +3251,30 @@
       <c r="I16" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="J16" s="81" t="s">
+      <c r="J16" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="K16" s="81"/>
-      <c r="L16" s="72" t="s">
+      <c r="K16" s="68"/>
+      <c r="L16" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="M16" s="72"/>
-      <c r="N16" s="72" t="s">
+      <c r="M16" s="61"/>
+      <c r="N16" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="O16" s="73"/>
-    </row>
-    <row r="17" spans="1:15" ht="8.4499999999999993" customHeight="1"/>
+      <c r="O16" s="62"/>
+    </row>
+    <row r="17" spans="1:15" ht="8.5" customHeight="1"/>
     <row r="18" spans="1:15" ht="20.25" customHeight="1">
-      <c r="A18" s="74" t="s">
+      <c r="A18" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="B18" s="75"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
       <c r="H18" s="40"/>
       <c r="I18" s="40"/>
       <c r="J18" s="40"/>
@@ -3247,7 +3284,7 @@
       <c r="N18" s="40"/>
       <c r="O18" s="41"/>
     </row>
-    <row r="19" spans="1:15" ht="26.45" customHeight="1">
+    <row r="19" spans="1:15" ht="26.5" customHeight="1">
       <c r="A19" s="42"/>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
@@ -3265,11 +3302,19 @@
       <c r="O19" s="43"/>
     </row>
     <row r="20" spans="1:15" ht="20.25" customHeight="1"/>
-    <row r="21" spans="1:15" ht="19.7" customHeight="1">
+    <row r="21" spans="1:15" ht="19.75" customHeight="1">
       <c r="O21" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A3:D3"/>
     <mergeCell ref="N16:O16"/>
     <mergeCell ref="A18:G18"/>
     <mergeCell ref="I5:I6"/>
@@ -3278,14 +3323,6 @@
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="J16:K16"/>
     <mergeCell ref="L16:M16"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A3:D3"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.63" right="0.59" top="0.63" bottom="0.37" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3294,12 +3331,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3308,12 +3345,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/mySystem/mySystem/xls/Extrusion/C/SOP-MFG-301-R08 吹膜机组运行记录.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/C/SOP-MFG-301-R08 吹膜机组运行记录.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10613"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0256E944-7DFD-A740-8537-12081A6FC2AE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="460" windowWidth="27940" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="855" yWindow="465" windowWidth="27945" windowHeight="17535" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -403,32 +402,6 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>记录人：</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>复核人：</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
       <t>实际温度</t>
     </r>
     <r>
@@ -1215,18 +1188,26 @@
       <t xml:space="preserve">
 Running Record of Extrusion Unit</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录人：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复核人：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1301,14 +1282,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1334,6 +1315,14 @@
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1685,7 +1674,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1830,9 +1819,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1845,28 +1858,37 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1890,52 +1912,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1951,7 +1946,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2026,23 +2021,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2078,23 +2056,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2270,23 +2231,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N3" sqref="N3:O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="11.125" style="3" customWidth="1"/>
     <col min="2" max="7" width="9" style="3"/>
     <col min="8" max="8" width="2" style="3" customWidth="1"/>
     <col min="9" max="9" width="12.5" style="3" customWidth="1"/>
     <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="21" customHeight="1">
+    <row r="1" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>6</v>
       </c>
@@ -2302,61 +2263,61 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="45" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N1" s="45"/>
       <c r="O1" s="45"/>
     </row>
-    <row r="2" spans="1:15" ht="49" customHeight="1">
-      <c r="A2" s="53" t="s">
+    <row r="2" spans="1:15" ht="48.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="56" t="s">
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56" t="s">
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56" t="s">
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="59" t="s">
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="60"/>
-      <c r="L3" s="57" t="s">
+      <c r="K3" s="56"/>
+      <c r="L3" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="58"/>
-      <c r="N3" s="57" t="s">
+      <c r="M3" s="54"/>
+      <c r="N3" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="58"/>
-    </row>
-    <row r="4" spans="1:15" ht="8.5" customHeight="1"/>
-    <row r="5" spans="1:15" ht="26.5" customHeight="1">
+      <c r="O3" s="54"/>
+    </row>
+    <row r="4" spans="1:15" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:15" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="15" t="s">
         <v>27</v>
       </c>
@@ -2378,7 +2339,7 @@
       <c r="G5" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="48" t="s">
+      <c r="I5" s="50" t="s">
         <v>47</v>
       </c>
       <c r="J5" s="15" t="s">
@@ -2400,7 +2361,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="26.5" customHeight="1">
+    <row r="6" spans="1:15" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="15" t="s">
         <v>53</v>
       </c>
@@ -2410,7 +2371,7 @@
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
-      <c r="I6" s="48"/>
+      <c r="I6" s="50"/>
       <c r="J6" s="15" t="s">
         <v>0</v>
       </c>
@@ -2430,7 +2391,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="26.5" customHeight="1">
+    <row r="7" spans="1:15" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="15" t="s">
         <v>54</v>
       </c>
@@ -2456,7 +2417,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="26.5" customHeight="1">
+    <row r="8" spans="1:15" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="15" t="s">
         <v>55</v>
       </c>
@@ -2482,8 +2443,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="26.5" customHeight="1">
-      <c r="A9" s="48" t="s">
+    <row r="9" spans="1:15" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="50" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="15" t="s">
@@ -2498,10 +2459,10 @@
       <c r="E9" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="51" t="s">
+      <c r="F9" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="55"/>
+      <c r="G9" s="51"/>
       <c r="I9" s="14" t="s">
         <v>15</v>
       </c>
@@ -2514,14 +2475,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="26.5" customHeight="1">
-      <c r="A10" s="48"/>
+    <row r="10" spans="1:15" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="50"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="55"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="51"/>
       <c r="I10" s="14" t="s">
         <v>16</v>
       </c>
@@ -2534,7 +2495,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="26.5" customHeight="1">
+    <row r="11" spans="1:15" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I11" s="14" t="s">
         <v>48</v>
       </c>
@@ -2551,8 +2512,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="26.5" customHeight="1">
-      <c r="A12" s="48" t="s">
+    <row r="12" spans="1:15" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="50" t="s">
         <v>42</v>
       </c>
       <c r="B12" s="15" t="s">
@@ -2595,8 +2556,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="26.5" customHeight="1">
-      <c r="A13" s="48"/>
+    <row r="13" spans="1:15" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="50"/>
       <c r="B13" s="13" t="s">
         <v>0</v>
       </c>
@@ -2637,7 +2598,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="26.5" customHeight="1">
+    <row r="14" spans="1:15" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="17" t="s">
         <v>58</v>
       </c>
@@ -2669,7 +2630,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="26.5" customHeight="1">
+    <row r="15" spans="1:15" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="15" t="s">
         <v>59</v>
       </c>
@@ -2682,20 +2643,20 @@
       <c r="I15" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="J15" s="48" t="s">
+      <c r="J15" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48" t="s">
+      <c r="K15" s="50"/>
+      <c r="L15" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="M15" s="48"/>
-      <c r="N15" s="48" t="s">
+      <c r="M15" s="50"/>
+      <c r="N15" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="O15" s="48"/>
-    </row>
-    <row r="16" spans="1:15" ht="26.5" customHeight="1">
+      <c r="O15" s="50"/>
+    </row>
+    <row r="16" spans="1:15" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="15" t="s">
         <v>60</v>
       </c>
@@ -2708,20 +2669,20 @@
       <c r="I16" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="J16" s="48" t="s">
+      <c r="J16" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48" t="s">
+      <c r="K16" s="50"/>
+      <c r="L16" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="M16" s="48"/>
-      <c r="N16" s="48" t="s">
+      <c r="M16" s="50"/>
+      <c r="N16" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="O16" s="48"/>
-    </row>
-    <row r="17" spans="1:15" ht="8.5" customHeight="1">
+      <c r="O16" s="50"/>
+    </row>
+    <row r="17" spans="1:15" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="16"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -2730,16 +2691,16 @@
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
     </row>
-    <row r="18" spans="1:15" ht="20.25" customHeight="1">
-      <c r="A18" s="49" t="s">
-        <v>115</v>
-      </c>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
+    <row r="18" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
@@ -2749,7 +2710,7 @@
       <c r="N18" s="5"/>
       <c r="O18" s="6"/>
     </row>
-    <row r="19" spans="1:15" ht="12" customHeight="1">
+    <row r="19" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="7"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2766,21 +2727,12 @@
       <c r="N19" s="2"/>
       <c r="O19" s="8"/>
     </row>
-    <row r="20" spans="1:15" ht="20.25" customHeight="1"/>
-    <row r="21" spans="1:15" ht="19.75" customHeight="1">
+    <row r="20" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="1:15" ht="19.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O21" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="J3:K3"/>
     <mergeCell ref="N16:O16"/>
     <mergeCell ref="A18:G18"/>
     <mergeCell ref="A12:A13"/>
@@ -2791,6 +2743,15 @@
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="N15:O15"/>
     <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="J3:K3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.72" right="0.70866141732283472" top="0.5" bottom="0.37" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2799,29 +2760,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9:G10"/>
+      <selection activeCell="N16" sqref="N16:O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" style="20" customWidth="1"/>
+    <col min="1" max="1" width="12.375" style="20" customWidth="1"/>
     <col min="2" max="7" width="9" style="20"/>
     <col min="8" max="8" width="1" style="20" customWidth="1"/>
-    <col min="9" max="9" width="14.1640625" style="20" customWidth="1"/>
+    <col min="9" max="9" width="14.125" style="20" customWidth="1"/>
     <col min="10" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="21" customHeight="1">
-      <c r="A1" s="69" t="s">
+    <row r="1" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
       <c r="E1" s="18"/>
       <c r="F1" s="18"/>
       <c r="G1" s="18"/>
@@ -2833,105 +2794,105 @@
       <c r="M1" s="18"/>
       <c r="N1" s="18"/>
       <c r="O1" s="19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="48.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="62" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="69" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="49" customHeight="1">
-      <c r="A2" s="70" t="s">
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="67" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="68"/>
+      <c r="G3" s="63" t="s">
+        <v>115</v>
+      </c>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="K3" s="66"/>
+      <c r="L3" s="82" t="s">
+        <v>118</v>
+      </c>
+      <c r="M3" s="83"/>
+      <c r="N3" s="82" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="77" t="s">
+      <c r="O3" s="83"/>
+    </row>
+    <row r="4" spans="1:15" ht="8.4499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:15" s="46" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="I5" s="76" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="75" t="s">
-        <v>63</v>
-      </c>
-      <c r="F3" s="76"/>
-      <c r="G3" s="71" t="s">
-        <v>117</v>
-      </c>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="73" t="s">
-        <v>64</v>
-      </c>
-      <c r="K3" s="74"/>
-      <c r="L3" s="75" t="s">
-        <v>65</v>
-      </c>
-      <c r="M3" s="76"/>
-      <c r="N3" s="75" t="s">
-        <v>66</v>
-      </c>
-      <c r="O3" s="76"/>
-    </row>
-    <row r="4" spans="1:15" ht="8.5" customHeight="1" thickBot="1"/>
-    <row r="5" spans="1:15" s="46" customFormat="1" ht="26.5" customHeight="1">
-      <c r="A5" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="G5" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="I5" s="65" t="s">
-        <v>74</v>
-      </c>
-      <c r="J5" s="22" t="s">
+      <c r="L5" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="K5" s="47" t="s">
-        <v>118</v>
-      </c>
-      <c r="L5" s="22" t="s">
+      <c r="M5" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="N5" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="M5" s="22" t="s">
+      <c r="O5" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="N5" s="22" t="s">
+    </row>
+    <row r="6" spans="1:15" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="24" t="s">
         <v>79</v>
-      </c>
-      <c r="O5" s="23" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="26.5" customHeight="1">
-      <c r="A6" s="24" t="s">
-        <v>81</v>
       </c>
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
@@ -2939,7 +2900,7 @@
       <c r="E6" s="25"/>
       <c r="F6" s="25"/>
       <c r="G6" s="26"/>
-      <c r="I6" s="66"/>
+      <c r="I6" s="77"/>
       <c r="J6" s="25" t="s">
         <v>0</v>
       </c>
@@ -2959,9 +2920,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="26.5" customHeight="1">
+    <row r="7" spans="1:15" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="24" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
@@ -2970,24 +2931,24 @@
       <c r="F7" s="25"/>
       <c r="G7" s="26"/>
       <c r="I7" s="27" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J7" s="28"/>
       <c r="K7" s="28"/>
       <c r="L7" s="29" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M7" s="29" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N7" s="28"/>
       <c r="O7" s="30" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="26.5" customHeight="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
@@ -2996,7 +2957,7 @@
       <c r="F8" s="25"/>
       <c r="G8" s="26"/>
       <c r="I8" s="27" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J8" s="28"/>
       <c r="K8" s="28"/>
@@ -3004,31 +2965,31 @@
       <c r="M8" s="28"/>
       <c r="N8" s="28"/>
       <c r="O8" s="30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="25" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" ht="26.5" customHeight="1">
-      <c r="A9" s="66" t="s">
+      <c r="C9" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="F9" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="25" t="s">
+      <c r="G9" s="79"/>
+      <c r="I9" s="27" t="s">
         <v>90</v>
-      </c>
-      <c r="F9" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="G9" s="80"/>
-      <c r="I9" s="27" t="s">
-        <v>92</v>
       </c>
       <c r="J9" s="28"/>
       <c r="K9" s="28"/>
@@ -3036,104 +2997,104 @@
       <c r="M9" s="28"/>
       <c r="N9" s="28"/>
       <c r="O9" s="30" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="26.5" customHeight="1" thickBot="1">
-      <c r="A10" s="67"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="78"/>
       <c r="B10" s="32"/>
       <c r="C10" s="32"/>
       <c r="D10" s="32"/>
       <c r="E10" s="32"/>
       <c r="F10" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="G10" s="81"/>
+        <v>91</v>
+      </c>
+      <c r="G10" s="80"/>
       <c r="I10" s="27" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J10" s="28"/>
       <c r="K10" s="28"/>
       <c r="L10" s="29" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M10" s="29" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N10" s="28"/>
       <c r="O10" s="30" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="26.5" customHeight="1" thickBot="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="I11" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="J11" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="K11" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="L11" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="M11" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="N11" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="O11" s="30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="76" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="J11" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="K11" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="L11" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="M11" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="N11" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="O11" s="30" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="26.5" customHeight="1">
-      <c r="A12" s="65" t="s">
+      <c r="E12" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="B12" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="D12" s="22" t="s">
+      <c r="F12" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="G12" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="I12" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="G12" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="I12" s="27" t="s">
-        <v>101</v>
-      </c>
       <c r="J12" s="29" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K12" s="29" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L12" s="29" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M12" s="29" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N12" s="29" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O12" s="30" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="26.5" customHeight="1">
-      <c r="A13" s="66"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="77"/>
       <c r="B13" s="25" t="s">
         <v>0</v>
       </c>
@@ -3141,7 +3102,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E13" s="25" t="s">
         <v>2</v>
@@ -3150,33 +3111,33 @@
         <v>2</v>
       </c>
       <c r="G13" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="I13" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="J13" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="K13" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="L13" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="M13" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="N13" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="O13" s="35" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="36" t="s">
         <v>103</v>
-      </c>
-      <c r="I13" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="J13" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="K13" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="L13" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="M13" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="N13" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="O13" s="35" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="26.5" customHeight="1">
-      <c r="A14" s="36" t="s">
-        <v>105</v>
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="25"/>
@@ -3185,30 +3146,30 @@
       <c r="F14" s="25"/>
       <c r="G14" s="26"/>
       <c r="I14" s="27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J14" s="29" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K14" s="29" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L14" s="29" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M14" s="29" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N14" s="29" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O14" s="35" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="26.5" customHeight="1" thickBot="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="24" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
@@ -3217,30 +3178,30 @@
       <c r="F15" s="25"/>
       <c r="G15" s="26"/>
       <c r="I15" s="27" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J15" s="28" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K15" s="28" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L15" s="28" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M15" s="28" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N15" s="28" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O15" s="30" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="26.5" customHeight="1" thickBot="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="37" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
@@ -3249,32 +3210,32 @@
       <c r="F16" s="32"/>
       <c r="G16" s="38"/>
       <c r="I16" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="J16" s="81" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="81"/>
+      <c r="L16" s="72" t="s">
         <v>110</v>
       </c>
-      <c r="J16" s="68" t="s">
+      <c r="M16" s="72"/>
+      <c r="N16" s="72" t="s">
         <v>111</v>
       </c>
-      <c r="K16" s="68"/>
-      <c r="L16" s="61" t="s">
-        <v>112</v>
-      </c>
-      <c r="M16" s="61"/>
-      <c r="N16" s="61" t="s">
+      <c r="O16" s="73"/>
+    </row>
+    <row r="17" spans="1:15" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="74" t="s">
         <v>113</v>
       </c>
-      <c r="O16" s="62"/>
-    </row>
-    <row r="17" spans="1:15" ht="8.5" customHeight="1"/>
-    <row r="18" spans="1:15" ht="20.25" customHeight="1">
-      <c r="A18" s="63" t="s">
-        <v>115</v>
-      </c>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
       <c r="H18" s="40"/>
       <c r="I18" s="40"/>
       <c r="J18" s="40"/>
@@ -3284,7 +3245,7 @@
       <c r="N18" s="40"/>
       <c r="O18" s="41"/>
     </row>
-    <row r="19" spans="1:15" ht="26.5" customHeight="1">
+    <row r="19" spans="1:15" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="42"/>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
@@ -3301,12 +3262,20 @@
       <c r="N19" s="18"/>
       <c r="O19" s="43"/>
     </row>
-    <row r="20" spans="1:15" ht="20.25" customHeight="1"/>
-    <row r="21" spans="1:15" ht="19.75" customHeight="1">
+    <row r="20" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="1:15" ht="19.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O21" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:O2"/>
     <mergeCell ref="G3:I3"/>
@@ -3315,14 +3284,6 @@
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="A3:D3"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.63" right="0.59" top="0.63" bottom="0.37" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3331,12 +3292,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3345,12 +3306,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
